--- a/spliced/falling/2023-03-25_18-02-59/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-59/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-1.803213787078858</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.8177140951156612</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.59937185049057</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-1.870238688588142</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-02-59/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-59/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.830316853523255</v>
+        <v>-2.822264432907104</v>
       </c>
       <c r="B2" t="n">
-        <v>3.761647629737854</v>
+        <v>3.932364892959594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4785371914505959</v>
+        <v>0.4758871763944626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.873888826370239</v>
+        <v>-2.760175883769989</v>
       </c>
       <c r="B3" t="n">
-        <v>3.739926481246949</v>
+        <v>3.927277326583862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2519635170698165</v>
+        <v>0.4960161261260509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.17759734392166</v>
+        <v>-2.64756965637207</v>
       </c>
       <c r="B4" t="n">
-        <v>3.094935894012452</v>
+        <v>3.941246557235718</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.055553257465361</v>
+        <v>0.6029229372739793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.781754684448242</v>
+        <v>-2.628955054283141</v>
       </c>
       <c r="B5" t="n">
-        <v>2.629349136352539</v>
+        <v>3.869387286901474</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.783702611923218</v>
+        <v>0.6939661800861359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.911327278614044</v>
+        <v>-2.694027137756347</v>
       </c>
       <c r="B6" t="n">
-        <v>1.632070899009704</v>
+        <v>3.838324213027954</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.105818438529968</v>
+        <v>0.7007610917091369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.623295831680297</v>
+        <v>-2.807751727104188</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7180684566497808</v>
+        <v>3.847099477052689</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.688220548629761</v>
+        <v>0.6076438263058663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.422207009792328</v>
+        <v>-2.889829158782959</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5463402450084687</v>
+        <v>3.764959990978241</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.518551957607269</v>
+        <v>0.4738430827856064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.178159475326543</v>
+        <v>-3.067947173118591</v>
       </c>
       <c r="B9" t="n">
-        <v>1.582323312759396</v>
+        <v>3.764124345779419</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.006135582923893</v>
+        <v>0.4743617072701454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.926182019710541</v>
+        <v>-3.113880395889281</v>
       </c>
       <c r="B10" t="n">
-        <v>3.611184996366497</v>
+        <v>3.648524475097656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6073530614375975</v>
+        <v>0.3546387374401094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.239339423179628</v>
+        <v>-2.830316853523255</v>
       </c>
       <c r="B11" t="n">
-        <v>4.14080636501312</v>
+        <v>3.761647629737854</v>
       </c>
       <c r="C11" t="n">
-        <v>3.278265589475629</v>
+        <v>0.4785371914505959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.282989490032158</v>
+        <v>-2.873888826370239</v>
       </c>
       <c r="B12" t="n">
-        <v>2.413680851459504</v>
+        <v>3.739926481246949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6543272763490596</v>
+        <v>0.2519635170698165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.509865951538076</v>
+        <v>-3.17759734392166</v>
       </c>
       <c r="B13" t="n">
-        <v>2.822640895843509</v>
+        <v>3.094935894012452</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.422052669525146</v>
+        <v>-1.055553257465361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.871775150299069</v>
+        <v>-3.781754684448242</v>
       </c>
       <c r="B14" t="n">
-        <v>4.098878204822539</v>
+        <v>2.629349136352539</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.140487685799597</v>
+        <v>-1.783702611923218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.782487344741822</v>
+        <v>-3.911327278614044</v>
       </c>
       <c r="B15" t="n">
-        <v>4.224413537979126</v>
+        <v>1.632070899009704</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.672759181261064</v>
+        <v>-2.105818438529968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.05776283740998212</v>
+        <v>-5.623295831680297</v>
       </c>
       <c r="B16" t="n">
-        <v>3.633949923515318</v>
+        <v>0.7180684566497808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03897095024586128</v>
+        <v>-2.688220548629761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.522613048553472</v>
+        <v>-6.422207009792328</v>
       </c>
       <c r="B17" t="n">
-        <v>5.809941577911379</v>
+        <v>0.5463402450084687</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.533208680152897</v>
+        <v>-3.518551957607269</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.382918024063111</v>
+        <v>-5.178159475326543</v>
       </c>
       <c r="B18" t="n">
-        <v>3.592077732086182</v>
+        <v>1.582323312759396</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.185777962207795</v>
+        <v>-3.006135582923893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.164362668991095</v>
+        <v>-3.926182019710541</v>
       </c>
       <c r="B19" t="n">
-        <v>3.682830810546873</v>
+        <v>3.611184996366497</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.28418397903442</v>
+        <v>0.6073530614375975</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.118086504936218</v>
+        <v>-4.239339423179628</v>
       </c>
       <c r="B20" t="n">
-        <v>3.899120330810547</v>
+        <v>4.14080636501312</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.249887198209762</v>
+        <v>3.278265589475629</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.282989490032158</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.413680851459504</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6543272763490596</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7.509865951538076</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.822640895843509</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.422052669525146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.871775150299069</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.098878204822539</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.140487685799597</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.782487344741822</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.224413537979126</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.672759181261064</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.05776283740998212</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.633949923515318</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03897095024586128</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.522613048553472</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.809941577911379</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.533208680152897</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4.382918024063111</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.592077732086182</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.185777962207795</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.164362668991095</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.682830810546873</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.28418397903442</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.118086504936218</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.899120330810547</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.249887198209762</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.6892168045043942</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>4.255544376373291</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-1.803213787078858</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.8177140951156612</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.59937185049057</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.870238688588142</v>
       </c>
     </row>
   </sheetData>
